--- a/data_processed/20250724/BTCUSDVOLSURFACE_REGULARIZED_20250724.xlsx
+++ b/data_processed/20250724/BTCUSDVOLSURFACE_REGULARIZED_20250724.xlsx
@@ -607,7 +607,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -868,7 +868,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -955,7 +955,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -984,7 +984,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1535,7 +1535,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -2086,7 +2086,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -2318,7 +2318,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -3014,7 +3014,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -3420,7 +3420,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -3449,7 +3449,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -3594,7 +3594,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -3623,7 +3623,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -3652,7 +3652,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -4290,7 +4290,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -4348,7 +4348,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -4406,7 +4406,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -4464,7 +4464,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -4493,7 +4493,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -4580,7 +4580,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -4638,7 +4638,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -4696,7 +4696,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -4754,7 +4754,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -4783,7 +4783,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -4870,7 +4870,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -4899,7 +4899,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -5508,7 +5508,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -5537,7 +5537,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -5566,7 +5566,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -5595,7 +5595,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -5624,7 +5624,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -5827,7 +5827,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5856,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -5885,7 +5885,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -5914,7 +5914,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -9805,7 +9805,7 @@
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -9892,7 +9892,7 @@
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -9921,7 +9921,7 @@
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -9979,7 +9979,7 @@
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -10066,7 +10066,7 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -10182,7 +10182,7 @@
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -10559,7 +10559,7 @@
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -10675,7 +10675,7 @@
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16585,7 +16585,7 @@
       </c>
       <c r="G592" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16672,7 +16672,7 @@
       </c>
       <c r="G595" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -28547,7 +28547,7 @@
       </c>
       <c r="G1066" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -28663,7 +28663,7 @@
       </c>
       <c r="G1070" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -43864,7 +43864,7 @@
       </c>
       <c r="G1675" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -44125,7 +44125,7 @@
       </c>
       <c r="G1684" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -46075,7 +46075,7 @@
       </c>
       <c r="G1758" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -46245,7 +46245,7 @@
       </c>
       <c r="G1764" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -47908,7 +47908,7 @@
       </c>
       <c r="G1827" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -48078,7 +48078,7 @@
       </c>
       <c r="G1833" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -48107,7 +48107,7 @@
       </c>
       <c r="G1834" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
